--- a/data/trans_orig/P14C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27D12F2E-6632-4F0D-96D3-EF86CC7716B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{525C4FCD-EA6D-4EA5-9CB1-0D9E286672D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF0124E9-6034-459D-9FCF-FE7921237B98}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C309C88-98D8-440F-B569-B6678A325325}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B9810C-F39B-41C8-A4A2-52C95B937153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4782385-B551-44B5-B787-45FC3165FFD0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C06-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{525C4FCD-EA6D-4EA5-9CB1-0D9E286672D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86940EB8-BD5D-4AEC-96E8-9B0EC03EF076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C309C88-98D8-440F-B569-B6678A325325}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA293FD3-CB5F-4970-8A91-49F8FE7E27FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="105">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2015 (Tasa respuesta: 0,67%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="108">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2016 (Tasa respuesta: 0,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -128,6 +128,9 @@
     <t>23,54%</t>
   </si>
   <si>
+    <t>76,52%</t>
+  </si>
+  <si>
     <t>35/44</t>
   </si>
   <si>
@@ -140,7 +143,7 @@
     <t>80,91%</t>
   </si>
   <si>
-    <t>21,34%</t>
+    <t>23,2%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -152,7 +155,7 @@
     <t>19,09%</t>
   </si>
   <si>
-    <t>78,66%</t>
+    <t>76,8%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -167,7 +170,7 @@
     <t>58,97%</t>
   </si>
   <si>
-    <t>13,36%</t>
+    <t>15,32%</t>
   </si>
   <si>
     <t>73,4%</t>
@@ -176,7 +179,7 @@
     <t>41,03%</t>
   </si>
   <si>
-    <t>86,64%</t>
+    <t>84,68%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -185,43 +188,43 @@
     <t>62,28%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>72,75%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>24,36%</t>
   </si>
   <si>
-    <t>62,66%</t>
+    <t>62,06%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>45,69%</t>
+    <t>53,76%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>51,91%</t>
+    <t>63,22%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>40,03%</t>
+    <t>39,59%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -230,43 +233,49 @@
     <t>24,89%</t>
   </si>
   <si>
+    <t>76,95%</t>
+  </si>
+  <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
+    <t>23,05%</t>
+  </si>
+  <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -281,73 +290,73 @@
     <t>80,92%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -762,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4782385-B551-44B5-B787-45FC3165FFD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830602CA-A299-4866-879D-7D0E08D166DB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1222,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1278,7 +1287,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1293,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -1305,7 +1314,7 @@
         <v>985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
@@ -1320,10 +1329,10 @@
         <v>3984</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>17</v>
@@ -1377,7 +1386,7 @@
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,7 +1416,7 @@
         <v>940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
@@ -1422,13 +1431,13 @@
         <v>940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1484,7 +1493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1499,7 +1508,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -1511,7 +1520,7 @@
         <v>974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -1526,10 +1535,10 @@
         <v>3863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>17</v>
@@ -1562,7 +1571,7 @@
         <v>2688</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
@@ -1577,13 +1586,13 @@
         <v>2688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,7 +1699,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1705,7 +1714,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -1717,13 +1726,13 @@
         <v>5399</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -1732,13 +1741,13 @@
         <v>8732</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1777,13 @@
         <v>2112</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -1783,13 +1792,13 @@
         <v>2112</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1828,13 @@
         <v>1159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1834,13 +1843,13 @@
         <v>1159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,7 +1905,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1908,13 +1917,13 @@
         <v>898</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -1923,13 +1932,13 @@
         <v>11941</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -1938,13 +1947,13 @@
         <v>12839</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,10 +1968,10 @@
         <v>2709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>17</v>
@@ -1974,13 +1983,13 @@
         <v>3262</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -1989,13 +1998,13 @@
         <v>5971</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,7 +2025,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2031,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2046,7 +2055,7 @@
         <v>13</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2123,13 @@
         <v>11487</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -2129,13 +2138,13 @@
         <v>19300</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -2144,13 +2153,13 @@
         <v>30787</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2174,13 @@
         <v>2709</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2180,13 +2189,13 @@
         <v>10887</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -2195,13 +2204,13 @@
         <v>13596</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,7 +2231,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2231,13 +2240,13 @@
         <v>4079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -2246,13 +2255,13 @@
         <v>4079</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2317,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
